--- a/BackTest/2019-10-25 BackTest OGO.xlsx
+++ b/BackTest/2019-10-25 BackTest OGO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3.300000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>48.38709677419353</v>
+      </c>
       <c r="L12" t="n">
         <v>20.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.899999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>31.42857142857147</v>
+      </c>
       <c r="L13" t="n">
         <v>20.39</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.999999999999996</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>27.27272727272726</v>
+      </c>
       <c r="L14" t="n">
         <v>20.51</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4.899999999999995</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>20.51</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>6.199999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>25.92592592592599</v>
+      </c>
       <c r="L16" t="n">
         <v>20.63999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>6.299999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>36.00000000000004</v>
+      </c>
       <c r="L17" t="n">
         <v>20.77</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>6.399999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>31.91489361702131</v>
+      </c>
       <c r="L18" t="n">
         <v>20.96</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>24.99999999999998</v>
+      </c>
       <c r="L19" t="n">
         <v>21.09</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>6.800000000000004</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>26.53061224489796</v>
+      </c>
       <c r="L20" t="n">
         <v>21.23</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>7.300000000000004</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>10.00000000000004</v>
+      </c>
       <c r="L21" t="n">
         <v>21.41</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>7.400000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>25.71428571428562</v>
+      </c>
       <c r="L22" t="n">
         <v>21.44</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>8.600000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>7.142857142857155</v>
+        <v>-8.695652173912997</v>
       </c>
       <c r="L23" t="n">
         <v>21.41</v>
@@ -1466,7 +1488,7 @@
         <v>8.700000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>8.43373493975902</v>
+        <v>10.52631578947362</v>
       </c>
       <c r="L24" t="n">
         <v>21.36</v>
@@ -1515,7 +1537,7 @@
         <v>8.700000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>4.999999999999978</v>
+        <v>-35.99999999999993</v>
       </c>
       <c r="L25" t="n">
         <v>21.4</v>
@@ -1564,7 +1586,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K26" t="n">
-        <v>13.63636363636362</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>21.39</v>
@@ -1613,7 +1635,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>3.092783505154645</v>
+        <v>-26.8292682926829</v>
       </c>
       <c r="L27" t="n">
         <v>21.29</v>
@@ -1662,7 +1684,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>13.4020618556701</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L28" t="n">
         <v>21.23</v>
@@ -1711,7 +1733,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>4.081632653061209</v>
+        <v>-23.40425531914895</v>
       </c>
       <c r="L29" t="n">
         <v>21.14</v>
@@ -1760,7 +1782,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>1.010101010101024</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L30" t="n">
         <v>21.01</v>
@@ -1809,7 +1831,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>4.854368932038833</v>
+        <v>-24.99999999999998</v>
       </c>
       <c r="L31" t="n">
         <v>20.88</v>
@@ -1860,7 +1882,7 @@
         <v>12.60000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-13.97849462365591</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L32" t="n">
         <v>20.72</v>
@@ -1911,7 +1933,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.090909090909092</v>
+        <v>-9.999999999999964</v>
       </c>
       <c r="L33" t="n">
         <v>20.67</v>
@@ -1962,7 +1984,7 @@
         <v>13.1</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.494505494505489</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>20.67</v>
@@ -2013,7 +2035,7 @@
         <v>13.1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.878048780487782</v>
+        <v>-22.22222222222225</v>
       </c>
       <c r="L35" t="n">
         <v>20.67</v>
@@ -2064,7 +2086,7 @@
         <v>13.5</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.80821917808218</v>
+        <v>-6.666666666666651</v>
       </c>
       <c r="L36" t="n">
         <v>20.55</v>
@@ -2115,7 +2137,7 @@
         <v>13.8</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.99999999999997</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L37" t="n">
         <v>20.56</v>
@@ -2166,7 +2188,7 @@
         <v>13.8</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.5135135135135</v>
+        <v>4.347826086956589</v>
       </c>
       <c r="L38" t="n">
         <v>20.52</v>
@@ -2217,7 +2239,7 @@
         <v>13.8</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111107</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L39" t="n">
         <v>20.53</v>
@@ -2268,7 +2290,7 @@
         <v>13.8</v>
       </c>
       <c r="K40" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L40" t="n">
         <v>20.56</v>
@@ -2319,7 +2341,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-27.53623188405799</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L41" t="n">
         <v>20.5</v>
